--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -634,7 +634,7 @@
     <t>estimatedDischargeDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date|2.1.0}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>TDDUIRessourcesUsed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used|2.0.0}
 </t>
   </si>
   <si>
@@ -737,7 +737,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-ressource-utilisee-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-ressource-utilisee-cisis|20250624152100</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -764,7 +764,7 @@
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIMaterialDetail.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-materiel-specialise-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-materiel-specialise-cisis|20250624152100</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource</t>
@@ -785,7 +785,7 @@
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-ressource-immobiliere-utilisee-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-ressource-immobiliere-utilisee-cisis|20250624152100</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.url</t>
@@ -813,7 +813,7 @@
     <t>TDDUIEventLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-label|2.0.0}
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
     <t>TDDUIEventReport</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-report}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-report|2.0.0}
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.0.0}
 </t>
   </si>
   <si>
@@ -887,7 +887,7 @@
     <t>TDDUIEventOutsideService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-outside-service}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-outside-service|2.0.0}
 </t>
   </si>
   <si>
@@ -903,7 +903,7 @@
     <t>TDDUIEventReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-reason}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-reason|2.0.0}
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>TDDUIPatientPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-present}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-present|2.0.0}
 </t>
   </si>
   <si>
@@ -935,7 +935,7 @@
     <t>TDDUIMeal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-meal}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-meal|2.0.0}
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type|2.1.0</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>TDDUIEventCancelReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason|2.0.0}
 </t>
   </si>
   <si>
@@ -1287,7 +1287,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1468,7 +1468,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type|2.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:coding.system}
@@ -1574,7 +1574,7 @@
     <t>Encounter.type.coding.code</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis|20250624152100</t>
   </si>
   <si>
     <t>Encounter.type:ssiad.coding.display</t>
@@ -1652,7 +1652,7 @@
     <t>Encounter.type:serafin.coding.code</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset|2.0.0</t>
   </si>
   <si>
     <t>Encounter.type:serafin.coding.display</t>
@@ -1742,7 +1742,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1761,7 +1761,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1907,7 +1907,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|RelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2009,7 +2009,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment|2.1.0)
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2398,7 +2398,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -2497,7 +2497,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition|2.1.0</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -2536,7 +2536,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
 </t>
   </si>
   <si>
@@ -2589,7 +2589,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.1.0</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -2604,7 +2604,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
 </t>
   </si>
   <si>
@@ -2626,7 +2626,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour|2.0.0)
 </t>
   </si>
   <si>
@@ -2988,7 +2988,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.3515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.87890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.6640625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -634,7 +634,7 @@
     <t>estimatedDischargeDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>TDDUIRessourcesUsed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used}
 </t>
   </si>
   <si>
@@ -737,7 +737,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-ressource-utilisee-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-ressource-utilisee-cisis</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -764,7 +764,7 @@
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIMaterialDetail.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-materiel-specialise-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-materiel-specialise-cisis</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource</t>
@@ -785,7 +785,7 @@
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.value[x]</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-ressource-immobiliere-utilisee-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-detail-ressource-immobiliere-utilisee-cisis</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.url</t>
@@ -813,7 +813,7 @@
     <t>TDDUIEventLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-label|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-label}
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
     <t>TDDUIEventReport</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-report|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-report}
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
 </t>
   </si>
   <si>
@@ -887,7 +887,7 @@
     <t>TDDUIEventOutsideService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-outside-service|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-outside-service}
 </t>
   </si>
   <si>
@@ -903,7 +903,7 @@
     <t>TDDUIEventReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-reason|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-reason}
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>TDDUIPatientPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-present|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-present}
 </t>
   </si>
   <si>
@@ -935,7 +935,7 @@
     <t>TDDUIMeal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-meal|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-meal}
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1126,7 +1126,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>TDDUIEventCancelReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason}
 </t>
   </si>
   <si>
@@ -1287,7 +1287,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1468,7 +1468,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:coding.system}
@@ -1574,7 +1574,7 @@
     <t>Encounter.type.coding.code</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis|20250624152100</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis</t>
   </si>
   <si>
     <t>Encounter.type:ssiad.coding.display</t>
@@ -1652,7 +1652,7 @@
     <t>Encounter.type:serafin.coding.code</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset|2.0.0</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset</t>
   </si>
   <si>
     <t>Encounter.type:serafin.coding.display</t>
@@ -1742,7 +1742,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1761,7 +1761,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0|Group|4.0.1)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Group)
 </t>
   </si>
   <si>
@@ -1907,7 +1907,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2009,7 +2009,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment)
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -2398,7 +2398,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -2497,7 +2497,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -2536,7 +2536,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
 </t>
   </si>
   <si>
@@ -2589,7 +2589,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -2604,7 +2604,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -2626,7 +2626,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour)
 </t>
   </si>
   <si>
@@ -2988,7 +2988,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.6640625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
